--- a/medicine/Enfance/Ladybird_(film)/Ladybird_(film).xlsx
+++ b/medicine/Enfance/Ladybird_(film)/Ladybird_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ladybird (Ladybird, Ladybird) est un film britannique réalisé par Ken Loach et sorti en 1994.
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maggie Conlan rencontre Jorge, un émigré paraguayen qui fuit les violences de son pays, et lui raconte son histoire. Elle a eu quatre enfants avec quatre hommes différents et vit avec un homme qui la bat. Pour ce motif, les services sociaux s'intéressent à son cas et lui proposent de la loger dans un foyer spécial. Un soir, alors qu'elle sort pour la première fois en laissant ses enfants seuls, un incendie se déclare dans le foyer, brûlant partiellement l'aîné, Sean. Sean lui est retiré, puis c'est au tour de ses autres enfants. L'homme avec qui elle vit la quitte. 
 Maggie a passé la nuit à raconter son histoire à Jorge et ils tombent amoureux. Peu de temps après, une décision judiciaire lui refuse de récupérer ses enfants. Maggie et Jorge décident d'emménager dans un nouvel appartement. Le voisinage se méfie de Jorge. Maggie tombe enceinte de Jorge et donne naissance à une fille. Tout se passe bien jusqu'à ce qu'une assistante sociale vienne s'enquérir de la santé du bébé et remarque que Maggie s'est blessée au visage, blessure qu'elle s'est faite à cause d'une porte de meuble de cuisine. Suspectant encore Maggie d'inaptitude à élever un enfant et, à tort, son compagnon de la battre, les services sociaux confient son bébé à une famille d'accueil. Maggie essaie de convaincre la justice qu'elle peut élever sa fille mais la décision est entérinée, notamment à cause du témoignage d'une voisine qui déteste le couple. Elle ne pourra plus jamais revoir sa fille ; de plus Jorge est menacé d'expulsion car il a travaillé en Angleterre sans permis de travail.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Ken Loach
 Scénario : Rona Munro
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Crissy Rock : Maggie Conlan
 Vladimir Vega : Jorge
@@ -633,12 +651,14 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ours d'argent de la meilleure actrice est décerné à Crissy Rock et le film remporte également le prix FIPRESCI et le prix du jury œcuménique à la Berlinale 1994.
 Le titre du film vient d'une comptine anglaise : « Ladybird, Ladybird,Fly away home,Your house is on fireAnd your children are gone ;All except oneAnd that's little AnnAnd she has crept underThe frying pan. »
 soit, en français  :
-« Coccinelle, CoccinelleVa t'en vite de chez toiTa maison est en feuEt tes enfants s'en sont allésTous sauf uneC'est la petite AnnEt elle s'est cachée sousLa poêle[1]. »
+« Coccinelle, CoccinelleVa t'en vite de chez toiTa maison est en feuEt tes enfants s'en sont allésTous sauf uneC'est la petite AnnEt elle s'est cachée sousLa poêle. »
 </t>
         </is>
       </c>
